--- a/test_data/Config.xlsx
+++ b/test_data/Config.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
-    <t>ExecutinFlag</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -34,6 +31,9 @@
   </si>
   <si>
     <t>Browser</t>
+  </si>
+  <si>
+    <t>ExecutionFlag</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -392,38 +392,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
